--- a/Inventario_Optimizado_BIEN.xlsx
+++ b/Inventario_Optimizado_BIEN.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://espolec-my.sharepoint.com/personal/dmantuan_espol_edu_ec/Documents/Documentos/REPOSITORIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{119E7B2C-CEF0-4B16-96BF-F3C7B97C2E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{119E7B2C-CEF0-4B16-96BF-F3C7B97C2E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5D03A13-3417-4412-90D7-487E7D91D848}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INDIVIDUAL" sheetId="2" r:id="rId1"/>
+    <sheet name="INDIVIDUAL" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="GRUPAL" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -2234,6 +2234,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2268,12 +2274,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3236,43 +3236,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D9B4CEE-DD33-4F55-9607-3D6A8634EE1E}" name="Tabla1" displayName="Tabla1" ref="F2:Q3" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D9B4CEE-DD33-4F55-9607-3D6A8634EE1E}" name="Tabla1" displayName="Tabla1" ref="F2:Q3" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="F2:Q3" xr:uid="{3D9B4CEE-DD33-4F55-9607-3D6A8634EE1E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{864B5BEE-1C9F-4D61-A1B5-46F32EF15AA5}" name="Enero" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{864B5BEE-1C9F-4D61-A1B5-46F32EF15AA5}" name="Enero" dataDxfId="11">
       <calculatedColumnFormula>+ROUND(VLOOKUP($B$3,GRUPAL!$B$2:$Y$574,13,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7A7BEC21-5916-4478-874E-BF7D3FE0CCB9}" name="Febrero" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{7A7BEC21-5916-4478-874E-BF7D3FE0CCB9}" name="Febrero" dataDxfId="10">
       <calculatedColumnFormula>+ROUND(VLOOKUP($B$3,GRUPAL!$B$2:$Y$574,14,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6C72AF46-EBF9-47B8-9B59-61FBAF5EF43D}" name="Marzo" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{6C72AF46-EBF9-47B8-9B59-61FBAF5EF43D}" name="Marzo" dataDxfId="9">
       <calculatedColumnFormula>+ROUND(VLOOKUP($B$3,GRUPAL!$B$2:$Y$574,15,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AFD13683-2D43-47D3-91A6-ECC1D2E92D87}" name="Abril" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{AFD13683-2D43-47D3-91A6-ECC1D2E92D87}" name="Abril" dataDxfId="8">
       <calculatedColumnFormula>+ROUND(VLOOKUP($B$3,GRUPAL!$B$2:$Y$574,16,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{15E20A3B-5716-43F1-865A-897938486630}" name="Mayo" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{15E20A3B-5716-43F1-865A-897938486630}" name="Mayo" dataDxfId="7">
       <calculatedColumnFormula>+ROUND(VLOOKUP($B$3,GRUPAL!$B$2:$Y$574,17,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A7427036-ED03-49FA-8CA4-F42C4AE93399}" name="Junio" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{A7427036-ED03-49FA-8CA4-F42C4AE93399}" name="Junio" dataDxfId="6">
       <calculatedColumnFormula>+ROUND(VLOOKUP($B$3,GRUPAL!$B$2:$Y$574,18,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B5419414-ADEF-425A-99DB-6D43C55AFE20}" name="Julio" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{B5419414-ADEF-425A-99DB-6D43C55AFE20}" name="Julio" dataDxfId="5">
       <calculatedColumnFormula>+ROUND(VLOOKUP($B$3,GRUPAL!$B$2:$Y$574,19,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CF2027F3-5298-4799-A93B-CCC1BFB6F391}" name="Agosto" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{CF2027F3-5298-4799-A93B-CCC1BFB6F391}" name="Agosto" dataDxfId="4">
       <calculatedColumnFormula>+ROUND(VLOOKUP($B$3,GRUPAL!$B$2:$Y$574,20,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E23AE7C3-9839-4B03-B9DB-AFB7CBE76A54}" name="Septiembre" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{E23AE7C3-9839-4B03-B9DB-AFB7CBE76A54}" name="Septiembre" dataDxfId="3">
       <calculatedColumnFormula>+ROUND(VLOOKUP($B$3,GRUPAL!$B$2:$Y$574,21,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{36025F72-C3A2-4DF2-AFF5-EE4149F517D9}" name="Octubre" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{36025F72-C3A2-4DF2-AFF5-EE4149F517D9}" name="Octubre" dataDxfId="2">
       <calculatedColumnFormula>+ROUND(VLOOKUP($B$3,GRUPAL!$B$2:$Y$574,22,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FD240154-B8D4-4BA7-93CC-2A6A351356C2}" name="Noviembre" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{FD240154-B8D4-4BA7-93CC-2A6A351356C2}" name="Noviembre" dataDxfId="1">
       <calculatedColumnFormula>+ROUND(VLOOKUP($B$3,GRUPAL!$B$2:$Y$574,23,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{888DBB7C-47F1-4E91-92CF-050B2278A316}" name="Diciembre" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{888DBB7C-47F1-4E91-92CF-050B2278A316}" name="Diciembre" dataDxfId="0">
       <calculatedColumnFormula>+ROUND(VLOOKUP($B$3,GRUPAL!$B$2:$Y$574,24,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3580,16 +3580,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>626</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="2:17" ht="15" thickBot="1">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3628,11 +3628,11 @@
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
       <c r="F3" s="9">
         <f>+ROUND(VLOOKUP($B$3,GRUPAL!$B$2:$Y$574,13,FALSE),0)</f>
         <v>9</v>
@@ -3683,104 +3683,104 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="15" thickBot="1">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="10" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="11">
         <f>AVERAGE(F3:Q3)</f>
         <v>7.25</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="28.8">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="11">
         <f>STDEV(F3:Q3)</f>
         <v>1.6025547785276542</v>
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="11">
         <f>_xlfn.VAR.P(F3:Q3)</f>
         <v>2.3541666666666665</v>
       </c>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="11">
         <f>MAX(F3:Q3)</f>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="11">
         <f>MIN(F3:Q3)</f>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="11">
         <f>MEDIAN(F3:Q3)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="11">
         <f>SKEW(F3:Q3)</f>
         <v>-0.16897797429788028</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="11">
         <f>MAX(F3:Q3)-MIN(F3:Q3)</f>
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="28.8">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="11">
         <f>STDEV(F3:Q3)/AVERAGE(F3:Q3)</f>
         <v>0.22104203841760747</v>
       </c>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="11">
         <f>SUM(F3:Q3)</f>
         <v>87</v>
       </c>
@@ -6677,8 +6677,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Y574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
